--- a/Image analysis/ContactFractionManualMeasures/AreaPerimeterMeasurements.xlsx
+++ b/Image analysis/ContactFractionManualMeasures/AreaPerimeterMeasurements.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olijm\Documents\GitHub\Move-n-murder\Image analysis\ContactFractionManualMeasures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62326CD3-39E8-4867-8519-BEE107F20AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3064CD5-7C94-4D10-8431-383AC4453515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{D299D6C9-38EA-40C5-B347-502314EA0C9B}"/>
+    <workbookView xWindow="-22597" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{D299D6C9-38EA-40C5-B347-502314EA0C9B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20x cell areas and perimeters" sheetId="1" r:id="rId1"/>
+    <sheet name="63x and 100x coverage fractions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Image</t>
   </si>
@@ -74,6 +75,24 @@
   </si>
   <si>
     <t>Grand average:</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Estimated coverage fraction</t>
+  </si>
+  <si>
+    <t>100x_Raw</t>
+  </si>
+  <si>
+    <t>63x_Raw2</t>
+  </si>
+  <si>
+    <t>63x_Raw1</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -433,21 +452,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9D0B94-707B-4290-B599-114E739CC693}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.06640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" customWidth="1"/>
-    <col min="9" max="9" width="12.1328125" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -488,7 +507,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -516,7 +535,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -544,7 +563,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -572,7 +591,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -600,7 +619,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -628,7 +647,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -656,7 +675,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -684,7 +703,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
@@ -712,7 +731,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
@@ -740,7 +759,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -768,7 +787,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
@@ -796,7 +815,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
@@ -824,7 +843,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>13</v>
       </c>
@@ -852,7 +871,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14</v>
       </c>
@@ -880,7 +899,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>15</v>
       </c>
@@ -908,7 +927,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>16</v>
       </c>
@@ -936,7 +955,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
       </c>
@@ -964,7 +983,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>18</v>
       </c>
@@ -992,7 +1011,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>19</v>
       </c>
@@ -1020,7 +1039,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>20</v>
       </c>
@@ -1048,7 +1067,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>21</v>
       </c>
@@ -1076,7 +1095,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1108,7 @@
         <v>0.35870441322103386</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1139,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2</v>
       </c>
@@ -1148,7 +1167,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>3</v>
       </c>
@@ -1176,7 +1195,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>4</v>
       </c>
@@ -1204,7 +1223,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>5</v>
       </c>
@@ -1232,7 +1251,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>6</v>
       </c>
@@ -1260,7 +1279,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>7</v>
       </c>
@@ -1288,7 +1307,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>8</v>
       </c>
@@ -1316,7 +1335,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>9</v>
       </c>
@@ -1344,7 +1363,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>10</v>
       </c>
@@ -1372,7 +1391,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>11</v>
       </c>
@@ -1400,7 +1419,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>12</v>
       </c>
@@ -1428,7 +1447,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>13</v>
       </c>
@@ -1456,7 +1475,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>14</v>
       </c>
@@ -1484,7 +1503,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>15</v>
       </c>
@@ -1512,7 +1531,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>16</v>
       </c>
@@ -1540,7 +1559,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>17</v>
       </c>
@@ -1568,7 +1587,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>18</v>
       </c>
@@ -1596,7 +1615,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>19</v>
       </c>
@@ -1624,7 +1643,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>20</v>
       </c>
@@ -1652,7 +1671,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>21</v>
       </c>
@@ -1680,7 +1699,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E47">
         <f>AVERAGE(E26:E46)</f>
         <v>0.4988758229737324</v>
@@ -1690,7 +1709,7 @@
         <v>0.44032669424782939</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1721,7 +1740,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>2</v>
       </c>
@@ -1749,7 +1768,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3</v>
       </c>
@@ -1777,7 +1796,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>4</v>
       </c>
@@ -1805,7 +1824,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>5</v>
       </c>
@@ -1833,7 +1852,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>6</v>
       </c>
@@ -1861,7 +1880,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>7</v>
       </c>
@@ -1889,7 +1908,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>8</v>
       </c>
@@ -1917,7 +1936,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>9</v>
       </c>
@@ -1945,7 +1964,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>10</v>
       </c>
@@ -1973,7 +1992,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>11</v>
       </c>
@@ -2001,7 +2020,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>12</v>
       </c>
@@ -2029,7 +2048,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>13</v>
       </c>
@@ -2057,7 +2076,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>14</v>
       </c>
@@ -2085,7 +2104,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>15</v>
       </c>
@@ -2113,7 +2132,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>16</v>
       </c>
@@ -2141,7 +2160,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>17</v>
       </c>
@@ -2169,7 +2188,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>18</v>
       </c>
@@ -2197,7 +2216,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>19</v>
       </c>
@@ -2225,7 +2244,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>20</v>
       </c>
@@ -2253,7 +2272,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>21</v>
       </c>
@@ -2281,7 +2300,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E70">
         <f>AVERAGE(E49:E69)</f>
         <v>0.42596595765799694</v>
@@ -2291,7 +2310,7 @@
         <v>0.42606469409578523</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2304,4 +2323,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1BDFC6-9B20-480E-9F56-D1AD8F1F7B7A}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>0.83848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0.82806999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.80625000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(B2:B4)</f>
+        <v>0.82426666666666659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>